--- a/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68F23559-29A9-4668-9E9C-5244E7A7D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F94C24C-053C-41BB-B9B8-BA7F0C960237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{245325F2-E10D-4E43-B5C3-C0A3287DACF9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A68A1535-9E5E-4E5A-8288-344C6D92AF94}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
     <t>91,64%</t>
   </si>
   <si>
@@ -359,6 +359,54 @@
     <t>23,62%</t>
   </si>
   <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
     <t>96,87%</t>
   </si>
   <si>
@@ -413,54 +461,6 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
     <t>89,99%</t>
   </si>
   <si>
@@ -572,6 +572,54 @@
     <t>20,35%</t>
   </si>
   <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
     <t>95,1%</t>
   </si>
   <si>
@@ -620,54 +668,6 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
     <t>91,25%</t>
   </si>
   <si>
@@ -779,15 +779,60 @@
     <t>19,39%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
     <t>97,53%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>81,89%</t>
   </si>
   <si>
@@ -806,9 +851,6 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>8,01%</t>
   </si>
   <si>
@@ -825,48 +867,6 @@
   </si>
   <si>
     <t>10,71%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
   </si>
   <si>
     <t>95,86%</t>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C3D417-9915-4FF9-B201-542C1FE0271E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCF25C-94FA-4096-B077-1BF970E86BDB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="D7" s="7">
-        <v>216720</v>
+        <v>185446</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="I7" s="7">
-        <v>204423</v>
+        <v>170929</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>629</v>
+        <v>533</v>
       </c>
       <c r="N7" s="7">
-        <v>421141</v>
+        <v>356374</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>9007</v>
+        <v>12856</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1651,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>13549</v>
+        <v>11310</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1666,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" s="7">
-        <v>22557</v>
+        <v>24167</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>198302</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217972</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="N9" s="7">
-        <v>443698</v>
+        <v>380541</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="D10" s="7">
-        <v>185446</v>
+        <v>216720</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1755,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="I10" s="7">
-        <v>170929</v>
+        <v>204423</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="N10" s="7">
-        <v>356374</v>
+        <v>421141</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +1791,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>12856</v>
+        <v>9007</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +1806,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>11310</v>
+        <v>13549</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>24167</v>
+        <v>22557</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>198302</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217972</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="N12" s="7">
-        <v>380541</v>
+        <v>443698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2058,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9E6867-134C-4A68-B094-0579836FB5B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66879596-D697-4A34-B884-A124DEE7FF61}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,49 +2331,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>357</v>
+        <v>289</v>
       </c>
       <c r="D7" s="7">
-        <v>243055</v>
+        <v>210026</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>284</v>
+      </c>
+      <c r="I7" s="7">
+        <v>201599</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="7">
-        <v>319</v>
-      </c>
-      <c r="I7" s="7">
-        <v>224561</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>573</v>
+      </c>
+      <c r="N7" s="7">
+        <v>411626</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="7">
-        <v>676</v>
-      </c>
-      <c r="N7" s="7">
-        <v>467616</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2382,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>7845</v>
+        <v>15940</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="7">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7">
+        <v>14611</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7066</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7">
+        <v>30550</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>14911</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>250900</v>
+        <v>225966</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>231627</v>
+        <v>216210</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>697</v>
+        <v>613</v>
       </c>
       <c r="N9" s="7">
-        <v>482527</v>
+        <v>442176</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,49 +2486,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="D10" s="7">
-        <v>210026</v>
+        <v>243055</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>319</v>
+      </c>
+      <c r="I10" s="7">
+        <v>224561</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="7">
-        <v>284</v>
-      </c>
-      <c r="I10" s="7">
-        <v>201599</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>676</v>
+      </c>
+      <c r="N10" s="7">
+        <v>467616</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="7">
-        <v>573</v>
-      </c>
-      <c r="N10" s="7">
-        <v>411626</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,25 +2537,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>15940</v>
+        <v>7845</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>14611</v>
+        <v>7066</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>134</v>
@@ -2567,10 +2567,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>30550</v>
+        <v>14911</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>225966</v>
+        <v>250900</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="I12" s="7">
-        <v>216210</v>
+        <v>231627</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>613</v>
+        <v>697</v>
       </c>
       <c r="N12" s="7">
-        <v>442176</v>
+        <v>482527</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B912900-1E9F-4FE1-8E0C-8A5270225753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F10B72-0C2D-4F91-BFE4-3E0C02934BBA}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="7">
-        <v>230588</v>
+        <v>213240</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3092,34 +3092,34 @@
         <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="I7" s="7">
-        <v>221851</v>
+        <v>200072</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>615</v>
+      </c>
+      <c r="N7" s="7">
+        <v>413312</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="7">
-        <v>624</v>
-      </c>
-      <c r="N7" s="7">
-        <v>452440</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>11880</v>
+        <v>13177</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
@@ -3143,10 +3143,10 @@
         <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>14205</v>
+        <v>13051</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
@@ -3155,19 +3155,19 @@
         <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7">
+        <v>26228</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M8" s="7">
-        <v>34</v>
-      </c>
-      <c r="N8" s="7">
-        <v>26084</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>192</v>
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>242468</v>
+        <v>226417</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>236056</v>
+        <v>213123</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>478524</v>
+        <v>439540</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D10" s="7">
-        <v>213240</v>
+        <v>230588</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3247,34 +3247,34 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="I10" s="7">
-        <v>200072</v>
+        <v>221851</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="N10" s="7">
-        <v>413312</v>
+        <v>452440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,10 +3283,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>13177</v>
+        <v>11880</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>201</v>
@@ -3298,10 +3298,10 @@
         <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>13051</v>
+        <v>14205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>204</v>
@@ -3310,19 +3310,19 @@
         <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>26228</v>
+        <v>26084</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>208</v>
@@ -3334,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>226417</v>
+        <v>242468</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I12" s="7">
-        <v>213123</v>
+        <v>236056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>439540</v>
+        <v>478524</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD7888F-EFCB-43EB-8964-D3DC14EA550B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09DED2-BB09-4EC6-9D46-4152A2F6AD3E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>59203</v>
+        <v>37277</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>246</v>
@@ -3838,25 +3838,25 @@
         <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>38768</v>
+        <v>33955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N7" s="7">
-        <v>97971</v>
+        <v>71234</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3877,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1499</v>
+        <v>903</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
@@ -3889,25 +3889,25 @@
         <v>256</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>3716</v>
+        <v>781</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>5215</v>
+        <v>1683</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>259</v>
@@ -3925,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,10 +3978,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>37277</v>
+        <v>59203</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>262</v>
@@ -3993,25 +3993,25 @@
         <v>248</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>33955</v>
+        <v>38768</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="N10" s="7">
-        <v>71234</v>
+        <v>97971</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>266</v>
@@ -4032,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>903</v>
+        <v>1499</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>269</v>
@@ -4044,25 +4044,25 @@
         <v>270</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>781</v>
+        <v>3716</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>272</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>1683</v>
+        <v>5215</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>273</v>
@@ -4080,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F94C24C-053C-41BB-B9B8-BA7F0C960237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58BC2F5-94C5-4779-8049-0150FEE0F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A68A1535-9E5E-4E5A-8288-344C6D92AF94}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8AB6732-15BB-41E7-89C8-2AB00C0AAE87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="357">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,859 +68,1048 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>88,0%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>96,55%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1120,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1027,39 +1216,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +1300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1222,13 +1411,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1237,6 +1419,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1301,19 +1490,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCF25C-94FA-4096-B077-1BF970E86BDB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0312DE-9B75-4148-9708-C98889C9FD5E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1430,10 +1639,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>169664</v>
+        <v>21144</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1445,10 +1654,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>171540</v>
+        <v>20099</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1460,10 +1669,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>514</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>341204</v>
+        <v>41242</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1481,10 +1690,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7">
-        <v>30322</v>
+        <v>86537</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1496,10 +1705,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I5" s="7">
-        <v>26267</v>
+        <v>81615</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1511,10 +1720,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="N5" s="7">
-        <v>56589</v>
+        <v>168153</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1532,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>199986</v>
+        <v>107681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1562,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>397793</v>
+        <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1585,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>185446</v>
+        <v>18571</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1809,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>170929</v>
+        <v>16080</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1824,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>533</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>356374</v>
+        <v>34651</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1845,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="D8" s="7">
-        <v>12856</v>
+        <v>214831</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1860,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>11310</v>
+        <v>215506</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1875,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>645</v>
       </c>
       <c r="N8" s="7">
-        <v>24167</v>
+        <v>430338</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1896,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>198302</v>
+        <v>233402</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>380541</v>
+        <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1949,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>326</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>216720</v>
+        <v>5499</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1964,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>204423</v>
+        <v>5615</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1979,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>629</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>421141</v>
+        <v>11114</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1782,7 +1991,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,49 +2000,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7">
-        <v>9007</v>
+        <v>110172</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>150</v>
+      </c>
+      <c r="I11" s="7">
+        <v>100415</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13549</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>315</v>
+      </c>
+      <c r="N11" s="7">
+        <v>210587</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>32</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22557</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="I12" s="7">
-        <v>217972</v>
+        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>661</v>
+        <v>331</v>
       </c>
       <c r="N12" s="7">
-        <v>443698</v>
+        <v>221701</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1889,55 +2098,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>861</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>571828</v>
+        <v>6972</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9333</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>815</v>
-      </c>
-      <c r="I13" s="7">
-        <v>546891</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7">
+        <v>16305</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>1676</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1118719</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +2155,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7">
+        <v>160288</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
+        <v>220</v>
+      </c>
+      <c r="I14" s="7">
+        <v>149354</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="7">
-        <v>52186</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>77</v>
-      </c>
-      <c r="I14" s="7">
-        <v>51127</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>462</v>
+      </c>
+      <c r="N14" s="7">
+        <v>309642</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>155</v>
-      </c>
-      <c r="N14" s="7">
-        <v>103313</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,55 +2206,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>78</v>
+      </c>
+      <c r="D16" s="7">
+        <v>52186</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>77</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51127</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
+        <v>155</v>
+      </c>
+      <c r="N16" s="7">
+        <v>103313</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>861</v>
+      </c>
+      <c r="D17" s="7">
+        <v>571828</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>815</v>
+      </c>
+      <c r="I17" s="7">
+        <v>546891</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1676</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1118719</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>624014</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>892</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>598018</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1831</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1222032</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2058,8 +2428,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66879596-D697-4A34-B884-A124DEE7FF61}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E43F4-59B2-4AF3-B7E8-1385BE4FC38C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2075,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2176,49 +2546,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>183761</v>
+        <v>36211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7">
-        <v>172535</v>
+        <v>35939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>520</v>
+        <v>103</v>
       </c>
       <c r="N4" s="7">
-        <v>356296</v>
+        <v>72150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,49 +2597,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7">
-        <v>47034</v>
+        <v>105385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>43432</v>
+        <v>105632</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="N5" s="7">
-        <v>90466</v>
+        <v>211017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,10 +2648,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7">
-        <v>230795</v>
+        <v>141596</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>215967</v>
+        <v>141571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>650</v>
+        <v>412</v>
       </c>
       <c r="N6" s="7">
-        <v>446762</v>
+        <v>283167</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2331,49 +2701,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>210026</v>
+        <v>22816</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>201599</v>
+        <v>16939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>573</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>411626</v>
+        <v>39755</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2752,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>15940</v>
+        <v>229842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="I8" s="7">
-        <v>14611</v>
+        <v>202911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>609</v>
       </c>
       <c r="N8" s="7">
-        <v>30550</v>
+        <v>432752</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="D9" s="7">
-        <v>225966</v>
+        <v>252658</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>216210</v>
+        <v>219850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>613</v>
+        <v>665</v>
       </c>
       <c r="N9" s="7">
-        <v>442176</v>
+        <v>472507</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,49 +2856,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>243055</v>
+        <v>4594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>224561</v>
+        <v>7845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>676</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>467616</v>
+        <v>12439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2907,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D11" s="7">
-        <v>7845</v>
+        <v>145080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>7066</v>
+        <v>142369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="N11" s="7">
-        <v>14911</v>
+        <v>287449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>250900</v>
+        <v>149674</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>231627</v>
+        <v>150214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>697</v>
+        <v>428</v>
       </c>
       <c r="N12" s="7">
-        <v>482527</v>
+        <v>299888</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2635,55 +3005,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>907</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>636842</v>
+        <v>7198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>862</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>598696</v>
+        <v>4386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1769</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>1235538</v>
+        <v>11584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +3062,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="D14" s="7">
-        <v>70819</v>
+        <v>156536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>93</v>
+        <v>209</v>
       </c>
       <c r="I14" s="7">
-        <v>65108</v>
+        <v>147784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>191</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>135927</v>
+        <v>304319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,55 +3113,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>240</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163734</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>455</v>
+      </c>
+      <c r="N15" s="7">
+        <v>315903</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7">
+        <v>70819</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
+        <v>93</v>
+      </c>
+      <c r="I16" s="7">
+        <v>65108</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="7">
+        <v>191</v>
+      </c>
+      <c r="N16" s="7">
+        <v>135927</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>907</v>
+      </c>
+      <c r="D17" s="7">
+        <v>636842</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
+        <v>862</v>
+      </c>
+      <c r="I17" s="7">
+        <v>598696</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1769</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1235539</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1005</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>707661</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>955</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>663804</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1960</v>
       </c>
-      <c r="N15" s="7">
-        <v>1371465</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="N18" s="7">
+        <v>1371466</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2804,8 +3335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F10B72-0C2D-4F91-BFE4-3E0C02934BBA}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C12325-EBE8-48BF-8711-C83A54F4C9B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2821,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,49 +3453,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>167231</v>
+        <v>25559</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>158174</v>
+        <v>29573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>512</v>
+        <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>325405</v>
+        <v>55132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +3504,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="D5" s="7">
-        <v>33565</v>
+        <v>92259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="I5" s="7">
-        <v>32992</v>
+        <v>97436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="N5" s="7">
-        <v>66556</v>
+        <v>189696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>200796</v>
+        <v>117818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>191166</v>
+        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3054,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>611</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>391961</v>
+        <v>244828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3077,49 +3608,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>213240</v>
+        <v>19733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>200072</v>
+        <v>11805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>615</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>413312</v>
+        <v>31538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3659,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="D8" s="7">
-        <v>13177</v>
+        <v>216515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
-        <v>13051</v>
+        <v>180263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>38</v>
+        <v>604</v>
       </c>
       <c r="N8" s="7">
-        <v>26228</v>
+        <v>396778</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D9" s="7">
-        <v>226417</v>
+        <v>236248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>213123</v>
+        <v>192068</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N9" s="7">
-        <v>439540</v>
+        <v>428316</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,49 +3763,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>230588</v>
+        <v>7356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>221851</v>
+        <v>6967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>624</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>452440</v>
+        <v>14323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3814,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>11880</v>
+        <v>161411</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>14205</v>
+        <v>162531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>457</v>
       </c>
       <c r="N11" s="7">
-        <v>26084</v>
+        <v>323943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,10 +3865,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>242468</v>
+        <v>168767</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>236056</v>
+        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>658</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>478524</v>
+        <v>338266</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3381,55 +3912,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>874</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>611059</v>
+        <v>5974</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H13" s="7">
-        <v>877</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>580097</v>
+        <v>11902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>1751</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>1191156</v>
+        <v>17876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +3969,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7">
-        <v>58621</v>
+        <v>140873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>60248</v>
+        <v>139867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="N14" s="7">
-        <v>118869</v>
+        <v>280740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,55 +4020,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>198</v>
+      </c>
+      <c r="D15" s="7">
+        <v>146847</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>216</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>414</v>
+      </c>
+      <c r="N15" s="7">
+        <v>298616</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7">
+        <v>58621</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60248</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="7">
+        <v>171</v>
+      </c>
+      <c r="N16" s="7">
+        <v>118869</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>874</v>
+      </c>
+      <c r="D17" s="7">
+        <v>611059</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
+        <v>877</v>
+      </c>
+      <c r="I17" s="7">
+        <v>580097</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1751</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1191156</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>957</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>669680</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>965</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640345</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1922</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1310025</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3550,8 +4242,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09DED2-BB09-4EC6-9D46-4152A2F6AD3E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7904919-5224-4FBD-9014-216D314E449C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3567,7 +4259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,49 +4360,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>24707</v>
+        <v>2205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>19918</v>
+        <v>2784</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>44625</v>
+        <v>4989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +4411,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>2836</v>
+        <v>15466</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>2784</v>
+        <v>13547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>5620</v>
+        <v>29013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3785,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3823,49 +4515,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>37277</v>
+        <v>1534</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>33955</v>
+        <v>781</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>71234</v>
+        <v>2315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +4566,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
-        <v>903</v>
+        <v>31080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>781</v>
+        <v>27169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>1683</v>
+        <v>58249</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,7 +4620,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +4670,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>59203</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>38768</v>
+        <v>1953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>97971</v>
+        <v>1953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4721,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>1499</v>
+        <v>35060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>3716</v>
+        <v>28516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>5215</v>
+        <v>63576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4819,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>121187</v>
+        <v>1499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>92643</v>
+        <v>1763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
-        <v>319</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>213830</v>
+        <v>3262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4876,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>5238</v>
+        <v>39582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>7280</v>
+        <v>23410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="M14" s="7">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>12518</v>
+        <v>62991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,55 +4927,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5238</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7280</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12518</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>178</v>
+      </c>
+      <c r="D17" s="7">
+        <v>121187</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="7">
+        <v>141</v>
+      </c>
+      <c r="I17" s="7">
+        <v>92643</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M17" s="7">
+        <v>319</v>
+      </c>
+      <c r="N17" s="7">
+        <v>213830</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F58BC2F5-94C5-4779-8049-0150FEE0F50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F974F31D-DF11-4F2C-B9D4-6CD628D7B223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8AB6732-15BB-41E7-89C8-2AB00C0AAE87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C497FDE6-CA43-47A4-874F-4F11DE98C323}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>19,64%</t>
   </si>
   <si>
-    <t>13,69%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>26,3%</t>
@@ -86,19 +86,19 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>73,7%</t>
   </si>
   <si>
-    <t>86,31%</t>
+    <t>85,91%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>11,27%</t>
@@ -149,19 +149,19 @@
     <t>6,94%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>92,04%</t>
@@ -170,25 +170,25 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>94,42%</t>
+    <t>94,68%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,49 +197,55 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -248,741 +254,741 @@
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>97,93%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>96,8%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>8,36%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -992,19 +998,19 @@
     <t>6,41%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>95,75%</t>
@@ -1013,103 +1019,103 @@
     <t>93,59%</t>
   </si>
   <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>11,59%</t>
+    <t>13,18%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>20,2%</t>
+    <t>21,57%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>96,35%</t>
   </si>
   <si>
-    <t>88,41%</t>
+    <t>86,82%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>79,8%</t>
+    <t>78,43%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0312DE-9B75-4148-9708-C98889C9FD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3113BD02-BF31-46FC-93B6-7AFF74143023}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1991,7 +1997,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +2012,13 @@
         <v>110172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>150</v>
@@ -2021,13 +2027,13 @@
         <v>100415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>315</v>
@@ -2036,13 +2042,13 @@
         <v>210587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2104,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2110,13 +2116,13 @@
         <v>6972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2125,13 +2131,13 @@
         <v>9333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2140,13 +2146,13 @@
         <v>16305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2167,13 @@
         <v>160288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>220</v>
@@ -2176,13 +2182,13 @@
         <v>149354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -2191,13 +2197,13 @@
         <v>309642</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2271,13 @@
         <v>52186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -2280,13 +2286,13 @@
         <v>51127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -2295,13 +2301,13 @@
         <v>103313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2322,13 @@
         <v>571828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>815</v>
@@ -2331,13 +2337,13 @@
         <v>546891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1676</v>
@@ -2346,13 +2352,13 @@
         <v>1118719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2414,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E43F4-59B2-4AF3-B7E8-1385BE4FC38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1911E9-C55B-4FF2-B9C7-A3FDE3499D78}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2445,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2552,13 +2558,13 @@
         <v>36211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -2567,13 +2573,13 @@
         <v>35939</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2582,13 +2588,13 @@
         <v>72150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2609,13 @@
         <v>105385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>158</v>
@@ -2618,13 +2624,13 @@
         <v>105632</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
@@ -2633,13 +2639,13 @@
         <v>211017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2713,13 @@
         <v>22816</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -2722,13 +2728,13 @@
         <v>16939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2737,13 +2743,13 @@
         <v>39755</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2764,13 @@
         <v>229842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>292</v>
@@ -2773,13 +2779,13 @@
         <v>202911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>609</v>
@@ -2788,13 +2794,13 @@
         <v>432752</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2868,13 @@
         <v>4594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2877,13 +2883,13 @@
         <v>7845</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2892,13 +2898,13 @@
         <v>12439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2919,13 @@
         <v>145080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -2928,13 +2934,13 @@
         <v>142369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -2943,13 +2949,13 @@
         <v>287449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +3011,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3017,13 +3023,13 @@
         <v>7198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3032,13 +3038,13 @@
         <v>4386</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3047,13 +3053,13 @@
         <v>11584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3074,13 @@
         <v>156536</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -3083,13 +3089,13 @@
         <v>147784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -3098,13 +3104,13 @@
         <v>304319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3178,13 @@
         <v>70819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -3187,13 +3193,13 @@
         <v>65108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -3202,13 +3208,13 @@
         <v>135927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3229,13 @@
         <v>636842</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>862</v>
@@ -3238,28 +3244,28 @@
         <v>598696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>1769</v>
       </c>
       <c r="N17" s="7">
-        <v>1235539</v>
+        <v>1235538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,7 +3307,7 @@
         <v>1960</v>
       </c>
       <c r="N18" s="7">
-        <v>1371466</v>
+        <v>1371465</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3315,7 +3321,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C12325-EBE8-48BF-8711-C83A54F4C9B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3843B5AE-23F9-4A15-9E7C-CD61C4429A20}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3352,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3459,13 +3465,13 @@
         <v>25559</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -3474,13 +3480,13 @@
         <v>29573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3489,13 +3495,13 @@
         <v>55132</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3516,13 @@
         <v>92259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>159</v>
@@ -3525,13 +3531,13 @@
         <v>97436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -3540,13 +3546,13 @@
         <v>189696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3620,13 @@
         <v>19733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3629,13 +3635,13 @@
         <v>11805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3644,13 +3650,13 @@
         <v>31538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3671,13 @@
         <v>216515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>284</v>
@@ -3680,13 +3686,13 @@
         <v>180263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>604</v>
@@ -3695,13 +3701,13 @@
         <v>396778</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3775,13 @@
         <v>7356</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3784,13 +3790,13 @@
         <v>6967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3799,13 +3805,13 @@
         <v>14323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3826,13 @@
         <v>161411</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -3835,13 +3841,13 @@
         <v>162531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>457</v>
@@ -3850,13 +3856,13 @@
         <v>323943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,7 +3918,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3930,7 +3936,7 @@
         <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3939,13 +3945,13 @@
         <v>11902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3954,13 +3960,13 @@
         <v>17876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3981,13 @@
         <v>140873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -3990,13 +3996,13 @@
         <v>139867</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>391</v>
@@ -4005,13 +4011,13 @@
         <v>280740</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4085,13 @@
         <v>58621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -4094,13 +4100,13 @@
         <v>60248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -4109,13 +4115,13 @@
         <v>118869</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4136,13 @@
         <v>611059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>877</v>
@@ -4145,13 +4151,13 @@
         <v>580097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>1751</v>
@@ -4160,13 +4166,13 @@
         <v>1191156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,7 +4228,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +4248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7904919-5224-4FBD-9014-216D314E449C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D8766-4878-4AF1-9343-FE17215BBC7F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4536,13 +4542,13 @@
         <v>781</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4551,13 +4557,13 @@
         <v>2315</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4578,13 @@
         <v>31080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>42</v>
@@ -4587,13 +4593,13 @@
         <v>27169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4602,13 +4608,13 @@
         <v>58249</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4682,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4691,13 +4697,13 @@
         <v>1953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4706,13 +4712,13 @@
         <v>1953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4733,10 @@
         <v>35060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -4742,13 +4748,13 @@
         <v>28516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -4757,13 +4763,13 @@
         <v>63576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4825,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4831,13 +4837,13 @@
         <v>1499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4846,13 +4852,13 @@
         <v>1763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4861,13 +4867,13 @@
         <v>3262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4888,13 @@
         <v>39582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4897,13 +4903,13 @@
         <v>23410</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4912,13 +4918,13 @@
         <v>62991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4992,13 @@
         <v>5238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -5001,13 +5007,13 @@
         <v>7280</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5016,13 +5022,13 @@
         <v>12518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5043,13 @@
         <v>121187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5052,13 +5058,13 @@
         <v>92643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -5067,13 +5073,13 @@
         <v>213830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5135,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F974F31D-DF11-4F2C-B9D4-6CD628D7B223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{009BE421-00DC-4B84-84E9-40B41E829F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C497FDE6-CA43-47A4-874F-4F11DE98C323}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53749003-3F7A-41B0-963D-6D598E83077C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="363">
   <si>
     <t>Menores según su última visita al médico fue por vacunación en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
     <t>19,64%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
     <t>80,36%</t>
   </si>
   <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,985 +137,997 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2012 (Tasa respuesta: 93,38%)</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por vacunación en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3113BD02-BF31-46FC-93B6-7AFF74143023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC89FF6-4F93-4713-887F-2AA32EF2C9BA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1645,10 +1657,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>21144</v>
+        <v>20099</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1660,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>20099</v>
+        <v>21144</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1696,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5" s="7">
-        <v>86537</v>
+        <v>81615</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1711,10 +1723,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I5" s="7">
-        <v>81615</v>
+        <v>86537</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1747,25 +1759,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101714</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>162</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107681</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1800,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>18571</v>
+        <v>16080</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1815,10 +1827,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>16080</v>
+        <v>18571</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1851,10 +1863,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>214831</v>
+        <v>215506</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1866,10 +1878,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I8" s="7">
-        <v>215506</v>
+        <v>214831</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1902,25 +1914,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>233402</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1958,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>5499</v>
+        <v>5615</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1973,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>5615</v>
+        <v>5499</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2006,10 +2018,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
-        <v>110172</v>
+        <v>100415</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2021,10 +2033,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>100415</v>
+        <v>110172</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2057,25 +2069,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>158</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106030</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2110,10 +2122,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>6972</v>
+        <v>9333</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2125,10 +2137,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>9333</v>
+        <v>6972</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2137,7 +2149,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2146,13 +2158,13 @@
         <v>16305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,34 +2173,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>220</v>
+      </c>
+      <c r="D14" s="7">
+        <v>149354</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>242</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>160288</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>220</v>
-      </c>
-      <c r="I14" s="7">
-        <v>149354</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -2197,13 +2209,13 @@
         <v>309642</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,25 +2224,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2265,34 +2277,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51127</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>78</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>52186</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>77</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51127</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -2301,13 +2313,13 @@
         <v>103313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,34 +2328,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>815</v>
+      </c>
+      <c r="D17" s="7">
+        <v>546891</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>861</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>571828</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>815</v>
-      </c>
-      <c r="I17" s="7">
-        <v>546891</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1676</v>
@@ -2352,13 +2364,13 @@
         <v>1118719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,25 +2379,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>892</v>
+      </c>
+      <c r="D18" s="7">
+        <v>598018</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2414,7 +2426,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1911E9-C55B-4FF2-B9C7-A3FDE3499D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3134B-5E9E-4C56-8137-42CFEA388B4E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2552,34 +2564,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>35939</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>50</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>36211</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="7">
-        <v>53</v>
-      </c>
-      <c r="I4" s="7">
-        <v>35939</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>103</v>
@@ -2588,13 +2600,13 @@
         <v>72150</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,34 +2615,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7">
+        <v>105632</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>151</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>105385</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="7">
-        <v>158</v>
-      </c>
-      <c r="I5" s="7">
-        <v>105632</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>309</v>
@@ -2639,13 +2651,13 @@
         <v>211017</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,25 +2666,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>141571</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>201</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>141596</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>141571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2707,34 +2719,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>16939</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>32</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>22816</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="7">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7">
-        <v>16939</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -2743,13 +2755,13 @@
         <v>39755</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,34 +2770,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>292</v>
+      </c>
+      <c r="D8" s="7">
+        <v>202911</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>317</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>229842</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>292</v>
-      </c>
-      <c r="I8" s="7">
-        <v>202911</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>609</v>
@@ -2794,13 +2806,13 @@
         <v>432752</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,25 +2821,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>316</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219850</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>349</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252658</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>316</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2862,34 +2874,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7845</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4594</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7845</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2898,13 +2910,13 @@
         <v>12439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,34 +2925,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>203</v>
+      </c>
+      <c r="D11" s="7">
+        <v>142369</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="7">
         <v>209</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>145080</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>203</v>
-      </c>
-      <c r="I11" s="7">
-        <v>142369</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>412</v>
@@ -2949,13 +2961,13 @@
         <v>287449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,25 +2976,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>213</v>
+      </c>
+      <c r="D12" s="7">
+        <v>150214</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>215</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149674</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>213</v>
-      </c>
-      <c r="I12" s="7">
-        <v>150214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3029,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7198</v>
+        <v>4386</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3032,10 +3044,10 @@
         <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>4386</v>
+        <v>7198</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>163</v>
@@ -3059,7 +3071,7 @@
         <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,34 +3080,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>209</v>
+      </c>
+      <c r="D14" s="7">
+        <v>147784</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>230</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>156536</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="7">
-        <v>209</v>
-      </c>
-      <c r="I14" s="7">
-        <v>147784</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -3104,13 +3116,13 @@
         <v>304319</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,25 +3131,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>240</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>163734</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>152170</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3172,34 +3184,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>93</v>
+      </c>
+      <c r="D16" s="7">
+        <v>65108</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="7">
         <v>98</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>70819</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="7">
-        <v>93</v>
-      </c>
-      <c r="I16" s="7">
-        <v>65108</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -3208,13 +3220,13 @@
         <v>135927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3235,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>907</v>
+        <v>862</v>
       </c>
       <c r="D17" s="7">
-        <v>636842</v>
+        <v>598696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>186</v>
@@ -3238,10 +3250,10 @@
         <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>862</v>
+        <v>907</v>
       </c>
       <c r="I17" s="7">
-        <v>598696</v>
+        <v>636842</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>188</v>
@@ -3274,25 +3286,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>955</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663804</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1005</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>707661</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>955</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663804</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3321,7 +3333,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3843B5AE-23F9-4A15-9E7C-CD61C4429A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB446FC-ECAB-4389-B968-A5C48453C9E7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,10 +3471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>25559</v>
+        <v>29573</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>195</v>
@@ -3474,19 +3486,19 @@
         <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>29573</v>
+        <v>25559</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3495,13 +3507,13 @@
         <v>55132</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,34 +3522,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>159</v>
+      </c>
+      <c r="D5" s="7">
+        <v>97436</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="7">
         <v>140</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>92259</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="7">
-        <v>159</v>
-      </c>
-      <c r="I5" s="7">
-        <v>97436</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>299</v>
@@ -3546,13 +3558,13 @@
         <v>189696</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,25 +3573,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>127009</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>177</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>117818</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3614,34 +3626,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11805</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>19733</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11805</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -3650,13 +3662,13 @@
         <v>31538</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,28 +3677,28 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>284</v>
+      </c>
+      <c r="D8" s="7">
+        <v>180263</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7">
         <v>320</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>216515</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H8" s="7">
-        <v>284</v>
-      </c>
-      <c r="I8" s="7">
-        <v>180263</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>224</v>
@@ -3716,25 +3728,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>302</v>
+      </c>
+      <c r="D9" s="7">
+        <v>192068</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>236248</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>302</v>
-      </c>
-      <c r="I9" s="7">
-        <v>192068</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3769,10 +3781,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>7356</v>
+        <v>6967</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>229</v>
@@ -3784,10 +3796,10 @@
         <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>6967</v>
+        <v>7356</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>232</v>
@@ -3808,10 +3820,10 @@
         <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,34 +3832,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>233</v>
+      </c>
+      <c r="D11" s="7">
+        <v>162531</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="7">
         <v>224</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>161411</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="7">
-        <v>233</v>
-      </c>
-      <c r="I11" s="7">
-        <v>162531</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>457</v>
@@ -3856,13 +3868,13 @@
         <v>323943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,25 +3883,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>244</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169498</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>234</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168767</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>244</v>
-      </c>
-      <c r="I12" s="7">
-        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3924,34 +3936,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11902</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5974</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11902</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3960,13 +3972,13 @@
         <v>17876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,25 +3987,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>201</v>
+      </c>
+      <c r="D14" s="7">
+        <v>139867</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7">
         <v>190</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>140873</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="7">
-        <v>201</v>
-      </c>
-      <c r="I14" s="7">
-        <v>139867</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>257</v>
@@ -4026,25 +4038,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>198</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>146847</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>216</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151769</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4079,10 +4091,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>58621</v>
+        <v>60248</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>263</v>
@@ -4094,10 +4106,10 @@
         <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>60248</v>
+        <v>58621</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>266</v>
@@ -4118,10 +4130,10 @@
         <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,34 +4142,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>877</v>
+      </c>
+      <c r="D17" s="7">
+        <v>580097</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
         <v>874</v>
       </c>
-      <c r="D17" s="7">
-        <v>611059</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="7">
-        <v>877</v>
-      </c>
       <c r="I17" s="7">
-        <v>580097</v>
+        <v>611060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>1751</v>
@@ -4166,13 +4178,13 @@
         <v>1191156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,25 +4193,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>965</v>
+      </c>
+      <c r="D18" s="7">
+        <v>640345</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>957</v>
       </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>965</v>
-      </c>
       <c r="I18" s="7">
-        <v>640345</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4240,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D8766-4878-4AF1-9343-FE17215BBC7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB596B4B-838E-45D8-975F-DF714BD26156}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4265,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4366,49 +4378,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2748</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
-        <v>2205</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="7">
-        <v>6</v>
-      </c>
       <c r="I4" s="7">
-        <v>2784</v>
+        <v>2301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>4989</v>
+        <v>5049</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,49 +4429,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13547</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
         <v>33</v>
       </c>
-      <c r="D5" s="7">
-        <v>15466</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
       <c r="I5" s="7">
-        <v>13547</v>
+        <v>16146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>29013</v>
+        <v>29693</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4480,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4501,7 +4513,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4521,49 +4533,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>763</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
-        <v>1534</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
       <c r="I7" s="7">
-        <v>781</v>
+        <v>1541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>2315</v>
+        <v>2304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,49 +4584,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7">
+        <v>27435</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
         <v>50</v>
       </c>
-      <c r="D8" s="7">
-        <v>31080</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="7">
-        <v>42</v>
-      </c>
       <c r="I8" s="7">
-        <v>27169</v>
+        <v>32187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
       </c>
       <c r="N8" s="7">
-        <v>58249</v>
+        <v>59621</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,25 +4635,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4656,7 +4668,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4676,49 +4688,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1948</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1953</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,40 +4739,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7">
+        <v>29348</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="7">
         <v>44</v>
       </c>
-      <c r="D11" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <v>38</v>
-      </c>
       <c r="I11" s="7">
-        <v>28516</v>
+        <v>36871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>63576</v>
+        <v>66219</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>328</v>
@@ -4778,25 +4790,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4811,7 +4823,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4834,13 +4846,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1499</v>
+        <v>1701</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>332</v>
@@ -4849,13 +4861,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1763</v>
+        <v>1501</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>334</v>
@@ -4864,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3262</v>
+        <v>3202</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>335</v>
@@ -4882,10 +4894,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>39582</v>
+        <v>22825</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>338</v>
@@ -4894,13 +4906,13 @@
         <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I14" s="7">
-        <v>23410</v>
+        <v>41045</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>340</v>
@@ -4909,13 +4921,13 @@
         <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
       </c>
       <c r="N14" s="7">
-        <v>62991</v>
+        <v>63869</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>342</v>
@@ -4933,25 +4945,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4966,7 +4978,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4986,10 +4998,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>5238</v>
+        <v>7160</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>345</v>
@@ -5001,34 +5013,34 @@
         <v>347</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>7280</v>
+        <v>5343</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>12518</v>
+        <v>12503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +5049,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7">
+        <v>93154</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H17" s="7">
         <v>178</v>
       </c>
-      <c r="D17" s="7">
-        <v>121187</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H17" s="7">
-        <v>141</v>
-      </c>
       <c r="I17" s="7">
-        <v>92643</v>
+        <v>126249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
       </c>
       <c r="N17" s="7">
-        <v>213830</v>
+        <v>219403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,25 +5100,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5121,7 +5133,7 @@
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5147,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
